--- a/natmiOut/OldD7/LR-pairs_lrc2p/Icam2-Itgb2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Icam2-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Icam2</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.735145635172</v>
+        <v>32.270062</v>
       </c>
       <c r="H2">
-        <v>31.735145635172</v>
+        <v>96.810186</v>
       </c>
       <c r="I2">
-        <v>0.9422324735989469</v>
+        <v>0.8981134838283896</v>
       </c>
       <c r="J2">
-        <v>0.9422324735989469</v>
+        <v>0.8981134838283895</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.462745182311199</v>
+        <v>0.1087903333333333</v>
       </c>
       <c r="N2">
-        <v>0.462745182311199</v>
+        <v>0.326371</v>
       </c>
       <c r="O2">
-        <v>0.007989275687980345</v>
+        <v>0.001630158713897873</v>
       </c>
       <c r="P2">
-        <v>0.007989275687980345</v>
+        <v>0.001630158713897873</v>
       </c>
       <c r="Q2">
-        <v>14.68528575262012</v>
+        <v>3.510670801667333</v>
       </c>
       <c r="R2">
-        <v>14.68528575262012</v>
+        <v>31.596037215006</v>
       </c>
       <c r="S2">
-        <v>0.007527754993749649</v>
+        <v>0.001464067521732026</v>
       </c>
       <c r="T2">
-        <v>0.007527754993749649</v>
+        <v>0.001464067521732025</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,309 +584,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.735145635172</v>
+        <v>32.270062</v>
       </c>
       <c r="H3">
-        <v>31.735145635172</v>
+        <v>96.810186</v>
       </c>
       <c r="I3">
-        <v>0.9422324735989469</v>
+        <v>0.8981134838283896</v>
       </c>
       <c r="J3">
-        <v>0.9422324735989469</v>
+        <v>0.8981134838283895</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>57.4580476884852</v>
+        <v>0.467525</v>
       </c>
       <c r="N3">
-        <v>57.4580476884852</v>
+        <v>1.402575</v>
       </c>
       <c r="O3">
-        <v>0.9920107243120196</v>
+        <v>0.007005585233201815</v>
       </c>
       <c r="P3">
-        <v>0.9920107243120196</v>
+        <v>0.007005585233201814</v>
       </c>
       <c r="Q3">
-        <v>1823.439511306736</v>
+        <v>15.08706073655</v>
       </c>
       <c r="R3">
-        <v>1823.439511306736</v>
+        <v>135.78354662895</v>
       </c>
       <c r="S3">
-        <v>0.9347047186051972</v>
+        <v>0.006291810560047604</v>
       </c>
       <c r="T3">
-        <v>0.9347047186051972</v>
+        <v>0.006291810560047601</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.16297146158781</v>
+        <v>32.270062</v>
       </c>
       <c r="H4">
-        <v>1.16297146158781</v>
+        <v>96.810186</v>
       </c>
       <c r="I4">
-        <v>0.03452920902188655</v>
+        <v>0.8981134838283896</v>
       </c>
       <c r="J4">
-        <v>0.03452920902188655</v>
+        <v>0.8981134838283895</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.462745182311199</v>
+        <v>65.34528366666666</v>
       </c>
       <c r="N4">
-        <v>0.462745182311199</v>
+        <v>196.035851</v>
       </c>
       <c r="O4">
-        <v>0.007989275687980345</v>
+        <v>0.9791603749844046</v>
       </c>
       <c r="P4">
-        <v>0.007989275687980345</v>
+        <v>0.9791603749844042</v>
       </c>
       <c r="Q4">
-        <v>0.5381594410151727</v>
+        <v>2108.696355330921</v>
       </c>
       <c r="R4">
-        <v>0.5381594410151727</v>
+        <v>18978.26719797828</v>
       </c>
       <c r="S4">
-        <v>0.0002758633701637499</v>
+        <v>0.8793971356039559</v>
       </c>
       <c r="T4">
-        <v>0.0002758633701637499</v>
+        <v>0.8793971356039555</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.16297146158781</v>
+        <v>32.270062</v>
       </c>
       <c r="H5">
-        <v>1.16297146158781</v>
+        <v>96.810186</v>
       </c>
       <c r="I5">
-        <v>0.03452920902188655</v>
+        <v>0.8981134838283896</v>
       </c>
       <c r="J5">
-        <v>0.03452920902188655</v>
+        <v>0.8981134838283895</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>57.4580476884852</v>
+        <v>0.8144386666666666</v>
       </c>
       <c r="N5">
-        <v>57.4580476884852</v>
+        <v>2.443316</v>
       </c>
       <c r="O5">
-        <v>0.9920107243120196</v>
+        <v>0.01220388106849596</v>
       </c>
       <c r="P5">
-        <v>0.9920107243120196</v>
+        <v>0.01220388106849596</v>
       </c>
       <c r="Q5">
-        <v>66.82206970025972</v>
+        <v>26.28198626853067</v>
       </c>
       <c r="R5">
-        <v>66.82206970025972</v>
+        <v>236.537876416776</v>
       </c>
       <c r="S5">
-        <v>0.03425334565172281</v>
+        <v>0.01096047014265424</v>
       </c>
       <c r="T5">
-        <v>0.03425334565172281</v>
+        <v>0.01096047014265424</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.782685172723201</v>
+        <v>1.529744666666667</v>
       </c>
       <c r="H6">
-        <v>0.782685172723201</v>
+        <v>4.589234</v>
       </c>
       <c r="I6">
-        <v>0.02323831737916661</v>
+        <v>0.04257457924772188</v>
       </c>
       <c r="J6">
-        <v>0.02323831737916661</v>
+        <v>0.04257457924772188</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.462745182311199</v>
+        <v>0.1087903333333333</v>
       </c>
       <c r="N6">
-        <v>0.462745182311199</v>
+        <v>0.326371</v>
       </c>
       <c r="O6">
-        <v>0.007989275687980345</v>
+        <v>0.001630158713897873</v>
       </c>
       <c r="P6">
-        <v>0.007989275687980345</v>
+        <v>0.001630158713897873</v>
       </c>
       <c r="Q6">
-        <v>0.3621837929440699</v>
+        <v>0.1664214322015556</v>
       </c>
       <c r="R6">
-        <v>0.3621837929440699</v>
+        <v>1.497792889814</v>
       </c>
       <c r="S6">
-        <v>0.0001856573240669469</v>
+        <v>6.940332135120938E-05</v>
       </c>
       <c r="T6">
-        <v>0.0001856573240669469</v>
+        <v>6.940332135120935E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.529744666666667</v>
+      </c>
+      <c r="H7">
+        <v>4.589234</v>
+      </c>
+      <c r="I7">
+        <v>0.04257457924772188</v>
+      </c>
+      <c r="J7">
+        <v>0.04257457924772188</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.467525</v>
+      </c>
+      <c r="N7">
+        <v>1.402575</v>
+      </c>
+      <c r="O7">
+        <v>0.007005585233201815</v>
+      </c>
+      <c r="P7">
+        <v>0.007005585233201814</v>
+      </c>
+      <c r="Q7">
+        <v>0.7151938752833334</v>
+      </c>
+      <c r="R7">
+        <v>6.436744877550001</v>
+      </c>
+      <c r="S7">
+        <v>0.0002982598436876208</v>
+      </c>
+      <c r="T7">
+        <v>0.0002982598436876208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.529744666666667</v>
+      </c>
+      <c r="H8">
+        <v>4.589234</v>
+      </c>
+      <c r="I8">
+        <v>0.04257457924772188</v>
+      </c>
+      <c r="J8">
+        <v>0.04257457924772188</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>65.34528366666666</v>
+      </c>
+      <c r="N8">
+        <v>196.035851</v>
+      </c>
+      <c r="O8">
+        <v>0.9791603749844046</v>
+      </c>
+      <c r="P8">
+        <v>0.9791603749844042</v>
+      </c>
+      <c r="Q8">
+        <v>99.96159918090378</v>
+      </c>
+      <c r="R8">
+        <v>899.6543926281339</v>
+      </c>
+      <c r="S8">
+        <v>0.0416873409810026</v>
+      </c>
+      <c r="T8">
+        <v>0.04168734098100259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.529744666666667</v>
+      </c>
+      <c r="H9">
+        <v>4.589234</v>
+      </c>
+      <c r="I9">
+        <v>0.04257457924772188</v>
+      </c>
+      <c r="J9">
+        <v>0.04257457924772188</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.8144386666666666</v>
+      </c>
+      <c r="N9">
+        <v>2.443316</v>
+      </c>
+      <c r="O9">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="P9">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="Q9">
+        <v>1.245883206660444</v>
+      </c>
+      <c r="R9">
+        <v>11.212948859944</v>
+      </c>
+      <c r="S9">
+        <v>0.0005195751016804542</v>
+      </c>
+      <c r="T9">
+        <v>0.0005195751016804541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.822405666666667</v>
+      </c>
+      <c r="H10">
+        <v>5.467217</v>
+      </c>
+      <c r="I10">
+        <v>0.05071967640590832</v>
+      </c>
+      <c r="J10">
+        <v>0.05071967640590832</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1087903333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.326371</v>
+      </c>
+      <c r="O10">
+        <v>0.001630158713897873</v>
+      </c>
+      <c r="P10">
+        <v>0.001630158713897873</v>
+      </c>
+      <c r="Q10">
+        <v>0.1982601199452222</v>
+      </c>
+      <c r="R10">
+        <v>1.784341079507</v>
+      </c>
+      <c r="S10">
+        <v>8.268112245917181E-05</v>
+      </c>
+      <c r="T10">
+        <v>8.268112245917178E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.782685172723201</v>
-      </c>
-      <c r="H7">
-        <v>0.782685172723201</v>
-      </c>
-      <c r="I7">
-        <v>0.02323831737916661</v>
-      </c>
-      <c r="J7">
-        <v>0.02323831737916661</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>57.4580476884852</v>
-      </c>
-      <c r="N7">
-        <v>57.4580476884852</v>
-      </c>
-      <c r="O7">
-        <v>0.9920107243120196</v>
-      </c>
-      <c r="P7">
-        <v>0.9920107243120196</v>
-      </c>
-      <c r="Q7">
-        <v>44.97156197939997</v>
-      </c>
-      <c r="R7">
-        <v>44.97156197939997</v>
-      </c>
-      <c r="S7">
-        <v>0.02305266005509966</v>
-      </c>
-      <c r="T7">
-        <v>0.02305266005509966</v>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.822405666666667</v>
+      </c>
+      <c r="H11">
+        <v>5.467217</v>
+      </c>
+      <c r="I11">
+        <v>0.05071967640590832</v>
+      </c>
+      <c r="J11">
+        <v>0.05071967640590832</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.467525</v>
+      </c>
+      <c r="N11">
+        <v>1.402575</v>
+      </c>
+      <c r="O11">
+        <v>0.007005585233201815</v>
+      </c>
+      <c r="P11">
+        <v>0.007005585233201814</v>
+      </c>
+      <c r="Q11">
+        <v>0.8520202093083333</v>
+      </c>
+      <c r="R11">
+        <v>7.668181883775</v>
+      </c>
+      <c r="S11">
+        <v>0.0003553210160620059</v>
+      </c>
+      <c r="T11">
+        <v>0.0003553210160620058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.822405666666667</v>
+      </c>
+      <c r="H12">
+        <v>5.467217</v>
+      </c>
+      <c r="I12">
+        <v>0.05071967640590832</v>
+      </c>
+      <c r="J12">
+        <v>0.05071967640590832</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>65.34528366666666</v>
+      </c>
+      <c r="N12">
+        <v>196.035851</v>
+      </c>
+      <c r="O12">
+        <v>0.9791603749844046</v>
+      </c>
+      <c r="P12">
+        <v>0.9791603749844042</v>
+      </c>
+      <c r="Q12">
+        <v>119.0856152440741</v>
+      </c>
+      <c r="R12">
+        <v>1071.770537196667</v>
+      </c>
+      <c r="S12">
+        <v>0.04966269736869685</v>
+      </c>
+      <c r="T12">
+        <v>0.04966269736869683</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.822405666666667</v>
+      </c>
+      <c r="H13">
+        <v>5.467217</v>
+      </c>
+      <c r="I13">
+        <v>0.05071967640590832</v>
+      </c>
+      <c r="J13">
+        <v>0.05071967640590832</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.8144386666666666</v>
+      </c>
+      <c r="N13">
+        <v>2.443316</v>
+      </c>
+      <c r="O13">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="P13">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="Q13">
+        <v>1.484237641285778</v>
+      </c>
+      <c r="R13">
+        <v>13.358138771572</v>
+      </c>
+      <c r="S13">
+        <v>0.0006189768986903059</v>
+      </c>
+      <c r="T13">
+        <v>0.0006189768986903058</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.308728</v>
+      </c>
+      <c r="H14">
+        <v>0.926184</v>
+      </c>
+      <c r="I14">
+        <v>0.008592260517980134</v>
+      </c>
+      <c r="J14">
+        <v>0.008592260517980134</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1087903333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.326371</v>
+      </c>
+      <c r="O14">
+        <v>0.001630158713897873</v>
+      </c>
+      <c r="P14">
+        <v>0.001630158713897873</v>
+      </c>
+      <c r="Q14">
+        <v>0.03358662202933333</v>
+      </c>
+      <c r="R14">
+        <v>0.302279598264</v>
+      </c>
+      <c r="S14">
+        <v>1.400674835546597E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.400674835546596E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.308728</v>
+      </c>
+      <c r="H15">
+        <v>0.926184</v>
+      </c>
+      <c r="I15">
+        <v>0.008592260517980134</v>
+      </c>
+      <c r="J15">
+        <v>0.008592260517980134</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.467525</v>
+      </c>
+      <c r="N15">
+        <v>1.402575</v>
+      </c>
+      <c r="O15">
+        <v>0.007005585233201815</v>
+      </c>
+      <c r="P15">
+        <v>0.007005585233201814</v>
+      </c>
+      <c r="Q15">
+        <v>0.1443380582</v>
+      </c>
+      <c r="R15">
+        <v>1.2990425238</v>
+      </c>
+      <c r="S15">
+        <v>6.01938134045846E-05</v>
+      </c>
+      <c r="T15">
+        <v>6.019381340458459E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.308728</v>
+      </c>
+      <c r="H16">
+        <v>0.926184</v>
+      </c>
+      <c r="I16">
+        <v>0.008592260517980134</v>
+      </c>
+      <c r="J16">
+        <v>0.008592260517980134</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>65.34528366666666</v>
+      </c>
+      <c r="N16">
+        <v>196.035851</v>
+      </c>
+      <c r="O16">
+        <v>0.9791603749844046</v>
+      </c>
+      <c r="P16">
+        <v>0.9791603749844042</v>
+      </c>
+      <c r="Q16">
+        <v>20.17391873584267</v>
+      </c>
+      <c r="R16">
+        <v>181.565268622584</v>
+      </c>
+      <c r="S16">
+        <v>0.008413201030749122</v>
+      </c>
+      <c r="T16">
+        <v>0.008413201030749119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.308728</v>
+      </c>
+      <c r="H17">
+        <v>0.926184</v>
+      </c>
+      <c r="I17">
+        <v>0.008592260517980134</v>
+      </c>
+      <c r="J17">
+        <v>0.008592260517980134</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.8144386666666666</v>
+      </c>
+      <c r="N17">
+        <v>2.443316</v>
+      </c>
+      <c r="O17">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="P17">
+        <v>0.01220388106849596</v>
+      </c>
+      <c r="Q17">
+        <v>0.2514400206826667</v>
+      </c>
+      <c r="R17">
+        <v>2.262960186144</v>
+      </c>
+      <c r="S17">
+        <v>0.0001048589254709631</v>
+      </c>
+      <c r="T17">
+        <v>0.0001048589254709631</v>
       </c>
     </row>
   </sheetData>
